--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H2">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I2">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J2">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N2">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q2">
-        <v>18.06874099798651</v>
+        <v>65.19549440557601</v>
       </c>
       <c r="R2">
-        <v>18.06874099798651</v>
+        <v>586.759449650184</v>
       </c>
       <c r="S2">
-        <v>0.002854558018362734</v>
+        <v>0.008528145031924294</v>
       </c>
       <c r="T2">
-        <v>0.002854558018362734</v>
+        <v>0.008528145031924294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H3">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I3">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J3">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N3">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q3">
-        <v>15.6526880204378</v>
+        <v>39.09490620728567</v>
       </c>
       <c r="R3">
-        <v>15.6526880204378</v>
+        <v>351.854155865571</v>
       </c>
       <c r="S3">
-        <v>0.002472862171340556</v>
+        <v>0.00511395815286116</v>
       </c>
       <c r="T3">
-        <v>0.002472862171340556</v>
+        <v>0.00511395815286116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H4">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I4">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J4">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N4">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q4">
-        <v>13.38373981605204</v>
+        <v>33.35338918908101</v>
       </c>
       <c r="R4">
-        <v>13.38373981605204</v>
+        <v>300.180502701729</v>
       </c>
       <c r="S4">
-        <v>0.002114406411152236</v>
+        <v>0.004362917144875136</v>
       </c>
       <c r="T4">
-        <v>0.002114406411152236</v>
+        <v>0.004362917144875136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H5">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I5">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J5">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N5">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q5">
-        <v>2033.42686027652</v>
+        <v>3008.132374408155</v>
       </c>
       <c r="R5">
-        <v>2033.42686027652</v>
+        <v>27073.19136967339</v>
       </c>
       <c r="S5">
-        <v>0.3212473381185402</v>
+        <v>0.3934902158205802</v>
       </c>
       <c r="T5">
-        <v>0.3212473381185402</v>
+        <v>0.3934902158205803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H6">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I6">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J6">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N6">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q6">
-        <v>1761.52816955169</v>
+        <v>1803.8463257137</v>
       </c>
       <c r="R6">
-        <v>1761.52816955169</v>
+        <v>16234.6169314233</v>
       </c>
       <c r="S6">
-        <v>0.2782919054252836</v>
+        <v>0.2359589910506833</v>
       </c>
       <c r="T6">
-        <v>0.2782919054252836</v>
+        <v>0.2359589910506833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H7">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I7">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J7">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N7">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q7">
-        <v>1506.184411849461</v>
+        <v>1538.931650579345</v>
       </c>
       <c r="R7">
-        <v>1506.184411849461</v>
+        <v>13850.3848552141</v>
       </c>
       <c r="S7">
-        <v>0.2379518744807373</v>
+        <v>0.2013058176798918</v>
       </c>
       <c r="T7">
-        <v>0.2379518744807373</v>
+        <v>0.2013058176798918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H8">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I8">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J8">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N8">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q8">
-        <v>376.5025189597496</v>
+        <v>547.6341302225121</v>
       </c>
       <c r="R8">
-        <v>376.5025189597496</v>
+        <v>4928.707172002608</v>
       </c>
       <c r="S8">
-        <v>0.05948108307878702</v>
+        <v>0.0716353688172945</v>
       </c>
       <c r="T8">
-        <v>0.05948108307878702</v>
+        <v>0.07163536881729451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H9">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I9">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J9">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N9">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q9">
-        <v>326.1586664418206</v>
+        <v>328.3924012259113</v>
       </c>
       <c r="R9">
-        <v>326.1586664418206</v>
+        <v>2955.531611033202</v>
       </c>
       <c r="S9">
-        <v>0.05152759877701196</v>
+        <v>0.0429566191739305</v>
       </c>
       <c r="T9">
-        <v>0.05152759877701196</v>
+        <v>0.04295661917393051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H10">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I10">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J10">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N10">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q10">
-        <v>278.880069973166</v>
+        <v>280.164364808822</v>
       </c>
       <c r="R10">
-        <v>278.880069973166</v>
+        <v>2521.479283279398</v>
       </c>
       <c r="S10">
-        <v>0.04405837351878431</v>
+        <v>0.03664796712795895</v>
       </c>
       <c r="T10">
-        <v>0.04405837351878431</v>
+        <v>0.03664796712795895</v>
       </c>
     </row>
   </sheetData>
